--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -32,10 +32,10 @@
     <t>总用例</t>
   </si>
   <si>
-    <t>2018-04-30 12:46:43</t>
-  </si>
-  <si>
-    <t>75秒</t>
+    <t>2018-11-13 13:38:07</t>
+  </si>
+  <si>
+    <t>108秒</t>
   </si>
   <si>
     <t>通过</t>
@@ -47,7 +47,7 @@
     <t>脚本版本</t>
   </si>
   <si>
-    <t>2018.4.28</t>
+    <t>2018.11.12</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -83,54 +83,16 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>登录失败</t>
-  </si>
-  <si>
-    <t>testALoginFail</t>
+    <t>test003</t>
+  </si>
+  <si>
+    <t>热门话题</t>
+  </si>
+  <si>
+    <t>testHotTopic</t>
   </si>
   <si>
     <t>打开testerhome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击登录
-输入用户名lose1
-输入密码1231231232
-点击登录
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出现错误的密码登录不成功提示框
-</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>testBLogin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击登录
-输入用户名lose
-输入密码XXXXXX
-点击登录
-点击图像
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">查找用户名lose成功
-</t>
-  </si>
-  <si>
-    <t>test003</t>
-  </si>
-  <si>
-    <t>热门话题</t>
-  </si>
-  <si>
-    <t>testHotTopic</t>
   </si>
   <si>
     <t xml:space="preserve">点击图像
@@ -299,10 +261,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -365,6 +327,49 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>881063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="热门话题CheckPoint_1_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="571500"/>
+          <a:ext cx="1828800" cy="881063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -694,7 +699,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1">
@@ -708,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1">
@@ -716,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -798,7 +803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
+    <row r="3" spans="1:10" ht="110" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -821,64 +826,11 @@
         <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
@@ -890,5 +842,6 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>